--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s0_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1869.676445140492</v>
+        <v>176.7950950332234</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7539999485015869</v>
+        <v>0.3639998435974121</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.88907212541224</v>
+        <v>56.79509503322339</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.24776339128116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.90513640446556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1718.610000001896</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>102.52</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,17 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -700,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -885,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.63858450874014</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
@@ -901,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39.81299701176103</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>39.57220118279979</v>
       </c>
     </row>
     <row r="7">
@@ -917,7 +906,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>37.24751652694442</v>
       </c>
     </row>
     <row r="8">
@@ -955,7 +944,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -983,34 +972,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1068,7 +1029,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>183.9330000000318</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -1079,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>109.3520000000044</v>
+        <v>58.2</v>
       </c>
     </row>
     <row r="5">
@@ -1090,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>184.6650000000483</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2630000000172</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="7">
@@ -1112,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>87.66400000001522</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="8">
@@ -1123,7 +1084,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>184.6650000000706</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="9">
@@ -1134,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>183.933000000061</v>
+        <v>103.6</v>
       </c>
     </row>
     <row r="10">
@@ -1145,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>103.2630000000591</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1192,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>84.66500000007014</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3">
@@ -1203,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>83.93300000006064</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -1214,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3.263000000058753</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1272,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>10.252</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="4">
@@ -1319,7 +1280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1346,7 +1307,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1357,34 +1318,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
         <v>1</v>
       </c>
     </row>
